--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Spring.030121-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Spring.030121-1.xlsx_with_dialog_acts.xlsx
@@ -745,12 +745,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1116,12 +1116,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1306,12 +1306,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1386,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1841,12 +1841,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2445,12 +2445,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2979,12 +2979,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3353,12 +3353,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3437,12 +3437,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3605,12 +3605,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4540,12 +4540,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4708,12 +4708,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4750,12 +4750,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4918,12 +4918,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5044,12 +5044,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5128,12 +5128,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5713,12 +5713,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6147,12 +6147,12 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6610,12 +6610,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8249,12 +8249,12 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8666,12 +8666,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9461,12 +9461,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9545,12 +9545,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9740,12 +9740,12 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9866,12 +9866,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10927,12 +10927,12 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10969,12 +10969,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11053,12 +11053,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11343,12 +11343,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11511,12 +11511,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11637,12 +11637,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11957,12 +11957,12 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12083,12 +12083,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12243,12 +12243,12 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12399,12 +12399,12 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12442,12 +12442,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12522,12 +12522,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12564,12 +12564,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12774,12 +12774,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12858,12 +12858,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12984,12 +12984,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13152,12 +13152,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13194,12 +13194,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13404,12 +13404,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13656,12 +13656,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13698,12 +13698,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13825,12 +13825,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14077,12 +14077,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14513,12 +14513,12 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14841,12 +14841,12 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15120,12 +15120,12 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15166,12 +15166,12 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15250,12 +15250,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15376,12 +15376,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16022,12 +16022,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16106,12 +16106,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16274,12 +16274,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16316,12 +16316,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18078,12 +18078,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18528,12 +18528,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19266,12 +19266,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19469,12 +19469,12 @@
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19553,12 +19553,12 @@
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20875,12 +20875,12 @@
       <c r="H497" t="inlineStr"/>
       <c r="I497" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21043,12 +21043,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21338,12 +21338,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21498,12 +21498,12 @@
       <c r="H512" t="inlineStr"/>
       <c r="I512" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21853,12 +21853,12 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22567,12 +22567,12 @@
       <c r="H538" t="inlineStr"/>
       <c r="I538" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22651,12 +22651,12 @@
       <c r="H540" t="inlineStr"/>
       <c r="I540" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
